--- a/FPt/output.xlsx
+++ b/FPt/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>Mã số thuế mua</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tên file XML</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -553,11 +548,6 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>0301175691</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0304244470r08e17y79g.xml</t>
         </is>
       </c>
     </row>
@@ -588,7 +578,6 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -649,11 +638,6 @@
           <t>0301175691</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0304308445rzmwy1yo4g.xml</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -708,11 +692,6 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>0401281414</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1C25TTV_00002426_0401281414.xml</t>
         </is>
       </c>
     </row>
@@ -739,7 +718,6 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -796,11 +774,6 @@
           <t>0301175691-036</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1C25THA_00000094_0301175691-036.xml</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -851,11 +824,6 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>0301175691-068</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>C25TKP-00004221-NII30XVQWNC-DPH.xml</t>
         </is>
       </c>
     </row>
@@ -882,7 +850,6 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -933,11 +900,6 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>0301175691-068</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>C25TKP-00004288-MIJ634K9JAD-DPH.xml</t>
         </is>
       </c>
     </row>
